--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_3_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_3_sawtooth_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.12000000000049</v>
+        <v>25.1800000000005</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1089042350289814</v>
+        <v>0.6236307111900747</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1089042350289814</v>
+        <v>0.6236307111900747</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>7.030651334169944</v>
+        <v>3.536826012802427</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-1.8549165654364614, 15.91621923377635]</t>
+          <t>[-6.035819834482176, 13.10947186008703]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1180157877344934</v>
+        <v>0.4606510147127172</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1180157877344934</v>
+        <v>0.4606510147127172</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.553526761476388</v>
+        <v>-2.666737307551696</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-5.459264110742623, 0.3522105877898474]</t>
+          <t>[-5.805185223750509, 0.47171060864711567]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.08350739279216257</v>
+        <v>0.09389603997900875</v>
       </c>
       <c r="S2" t="n">
-        <v>0.08350739279216257</v>
+        <v>0.09389603997900875</v>
       </c>
       <c r="T2" t="n">
-        <v>12.19626806072949</v>
+        <v>12.62425206280053</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[7.640216617803908, 16.752319503655066]</t>
+          <t>[7.581233157310514, 17.66727096829054]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.472123988406238e-06</v>
+        <v>7.999352174214991e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>2.472123988406238e-06</v>
+        <v>7.999352174214991e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>10.20892892892913</v>
+        <v>10.68700700700722</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.408128128128157</v>
+        <v>-1.890390390390426</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.82598598598641</v>
+        <v>23.26440440440486</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.12000000000049</v>
+        <v>25.1800000000005</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.248293428031627</v>
+        <v>0.4550530020617787</v>
       </c>
       <c r="I3" t="n">
-        <v>0.248293428031627</v>
+        <v>0.4550530020617787</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>6.54873513009183</v>
+        <v>4.082413603826061</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-3.745652101912178, 16.843122362095837]</t>
+          <t>[-4.4602142479561815, 12.625041455608304]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.2066642956215243</v>
+        <v>0.3409351045504181</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2066642956215243</v>
+        <v>0.3409351045504181</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.327105669325773</v>
+        <v>-2.490632013656773</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-5.452974635960662, 0.798763297309117]</t>
+          <t>[-5.622790455073624, 0.6415264277600787]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.1407448309477108</v>
+        <v>0.1162469533482031</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1407448309477108</v>
+        <v>0.1162469533482031</v>
       </c>
       <c r="T3" t="n">
-        <v>14.12451090722537</v>
+        <v>10.61097210360921</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[8.672731246414184, 19.576290568036548]</t>
+          <t>[6.093544122899601, 15.128400084318827]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.434578286804935e-06</v>
+        <v>2.240615799431467e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>4.434578286804935e-06</v>
+        <v>2.240615799431467e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>9.303703703703885</v>
+        <v>9.981261261261457</v>
       </c>
       <c r="Y3" t="n">
-        <v>-3.193433433433498</v>
+        <v>-2.570930930930986</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.80084084084127</v>
+        <v>22.5334534534539</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.12000000000049</v>
+        <v>25.1800000000005</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7814432373425203</v>
+        <v>0.2219720947756371</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7814432373425203</v>
+        <v>0.2219720947756371</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>2.282712608350543</v>
+        <v>5.311032761899888</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-6.573910121342866, 11.139335338043953]</t>
+          <t>[-2.4423849988912743, 13.06445052269105]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.6062233455633128</v>
+        <v>0.1745131737459444</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6062233455633128</v>
+        <v>0.1745131737459444</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.144684410317002</v>
+        <v>-1.74847398938531</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.2768428517338535, 1.9874740310998504]</t>
+          <t>[-4.7925797838547, 1.2956318050840796]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.46550310773399</v>
+        <v>0.2534335077141101</v>
       </c>
       <c r="S4" t="n">
-        <v>0.46550310773399</v>
+        <v>0.2534335077141101</v>
       </c>
       <c r="T4" t="n">
-        <v>12.94026051392169</v>
+        <v>14.42189596725099</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[8.221515216620027, 17.65900581122336]</t>
+          <t>[10.057712494392115, 18.786079440109866]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.58335618749561e-06</v>
+        <v>3.306285578652535e-08</v>
       </c>
       <c r="W4" t="n">
-        <v>1.58335618749561e-06</v>
+        <v>3.306285578652535e-08</v>
       </c>
       <c r="X4" t="n">
-        <v>4.576416416416503</v>
+        <v>7.007047047047184</v>
       </c>
       <c r="Y4" t="n">
-        <v>-7.945865865866027</v>
+        <v>-5.19227227227238</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.09869869869903</v>
+        <v>19.20636636636675</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.12000000000049</v>
+        <v>25.1800000000005</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2654154154486851</v>
+        <v>0.6308737645698584</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2654154154486851</v>
+        <v>0.6308737645698584</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>6.087638353040393</v>
+        <v>3.063423554404779</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-3.3962604902323656, 15.571537196313152]</t>
+          <t>[-5.147819971164046, 11.274667079973604]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.202666065692148</v>
+        <v>0.4563149008163125</v>
       </c>
       <c r="O5" t="n">
-        <v>0.202666065692148</v>
+        <v>0.4563149008163125</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.981211046649773</v>
+        <v>-3.044105794469389</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-6.113369488066625, 0.15094739476707808]</t>
+          <t>[-6.138527387194471, 0.0503157982556921]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.06159547706978863</v>
+        <v>0.05368142950139143</v>
       </c>
       <c r="S5" t="n">
-        <v>0.06159547706978863</v>
+        <v>0.05368142950139143</v>
       </c>
       <c r="T5" t="n">
-        <v>14.50858769408515</v>
+        <v>10.97579262488651</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[9.389665175797141, 19.627510212373167]</t>
+          <t>[6.566727151971358, 15.384858097801652]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>8.437913461278868e-07</v>
+        <v>8.78445177354692e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>8.437913461278868e-07</v>
+        <v>8.78445177354692e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>11.91879879879903</v>
+        <v>12.19931931931956</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.6034834834834992</v>
+        <v>-0.2016416416416433</v>
       </c>
       <c r="Z5" t="n">
-        <v>24.44108108108156</v>
+        <v>24.60028028028077</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.12000000000049</v>
+        <v>25.1800000000005</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6295702614641771</v>
+        <v>0.09465078282533401</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6295702614641771</v>
+        <v>0.09465078282533401</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>3.482698704141974</v>
+        <v>9.887224196821636</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-6.692882116064144, 13.658279524348092]</t>
+          <t>[-1.9578969437203355, 21.732345337363608]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.4941438060331729</v>
+        <v>0.09965511262188187</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4941438060331729</v>
+        <v>0.09965511262188187</v>
       </c>
       <c r="P6" t="n">
-        <v>2.182447749340658</v>
+        <v>-2.553526761476389</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.9497106920761924, 5.314606190757508]</t>
+          <t>[-5.666816778547354, 0.5597632555945768]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.1673602841540529</v>
+        <v>0.1055023576923992</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1673602841540529</v>
+        <v>0.1055023576923992</v>
       </c>
       <c r="T6" t="n">
-        <v>17.26885421494864</v>
+        <v>15.56947677681293</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[12.04913664005306, 22.48857178984421]</t>
+          <t>[9.365469108791762, 21.773484444834104]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.221103761497091e-08</v>
+        <v>7.669217862771305e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>3.221103761497091e-08</v>
+        <v>7.669217862771305e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>16.39463463463495</v>
+        <v>10.23331331331352</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.872352352352426</v>
+        <v>-2.243263263263305</v>
       </c>
       <c r="Z6" t="n">
-        <v>28.91691691691747</v>
+        <v>22.70988988989034</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.12000000000049</v>
+        <v>25.1800000000005</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1244436687366306</v>
+        <v>0.2403782294450264</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1244436687366306</v>
+        <v>0.2403782294450264</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>7.628664057445755</v>
+        <v>6.596920177418399</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.7988314038978004, 17.05615951878931]</t>
+          <t>[-3.2788807669549804, 16.47272112179178]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1101251519038375</v>
+        <v>0.1852375100102228</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1101251519038375</v>
+        <v>0.1852375100102228</v>
       </c>
       <c r="P7" t="n">
-        <v>2.836553126664658</v>
+        <v>2.798816277972889</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.8616580451287317, 4.811448208200584]</t>
+          <t>[-0.1823947686768852, 5.7800273246226626]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.005863809926775154</v>
+        <v>0.0650893667522221</v>
       </c>
       <c r="S7" t="n">
-        <v>0.005863809926775154</v>
+        <v>0.0650893667522221</v>
       </c>
       <c r="T7" t="n">
-        <v>15.00293032158377</v>
+        <v>13.24637390246868</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[9.864895729096745, 20.140964914070786]</t>
+          <t>[7.83231813410714, 18.66042967083021]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.68614780757548e-07</v>
+        <v>1.169326593708497e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>4.68614780757548e-07</v>
+        <v>1.169326593708497e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>13.77953953953981</v>
+        <v>13.96368368368396</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.883963963964076</v>
+        <v>2.016416416416458</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.67511511511553</v>
+        <v>25.91095095095146</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.12000000000049</v>
+        <v>25.1800000000005</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4527651973176967</v>
+        <v>0.2464275404997598</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4527651973176967</v>
+        <v>0.2464275404997598</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.427893129179436</v>
+        <v>5.650830639623713</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-5.278174177084853, 14.133960435443726]</t>
+          <t>[-3.1588817919674987, 14.460543071214925]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.3630830524727831</v>
+        <v>0.2029840317219684</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3630830524727831</v>
+        <v>0.2029840317219684</v>
       </c>
       <c r="P8" t="n">
-        <v>2.081816152829273</v>
+        <v>2.698184681461504</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.0566317633695395, 5.220264069028085]</t>
+          <t>[-0.3522105877898465, 5.7485799507128545]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.1882639116559626</v>
+        <v>0.08157261435804597</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1882639116559626</v>
+        <v>0.08157261435804597</v>
       </c>
       <c r="T8" t="n">
-        <v>14.64602820570451</v>
+        <v>12.92610951270433</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[9.577829482353676, 19.714226929055343]</t>
+          <t>[8.221476318957695, 17.630742706450963]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>5.766226942593988e-07</v>
+        <v>1.527936318579393e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>5.766226942593988e-07</v>
+        <v>1.527936318579393e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>16.79695695695728</v>
+        <v>14.36696696696725</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.24952952952961</v>
+        <v>2.142442442442483</v>
       </c>
       <c r="Z8" t="n">
-        <v>29.34438438438495</v>
+        <v>26.59149149149201</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.12000000000049</v>
+        <v>25.1800000000005</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9463862020677369</v>
+        <v>0.8864652765304512</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9463862020677369</v>
+        <v>0.8864652765304512</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>1.342415906323847</v>
+        <v>1.727849151956206</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-9.778153620571825, 12.462985433219519]</t>
+          <t>[-8.261735230392816, 11.71743353430523]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.8090081702260592</v>
+        <v>0.7291872549435507</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8090081702260592</v>
+        <v>0.7291872549435507</v>
       </c>
       <c r="P9" t="n">
-        <v>2.861711025792504</v>
+        <v>1.83023716155081</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.27673689040630833, 6.000158941991316]</t>
+          <t>[-1.3082107546480017, 4.9686850777496225]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.07289365427274563</v>
+        <v>0.2463501070892007</v>
       </c>
       <c r="S9" t="n">
-        <v>0.07289365427274563</v>
+        <v>0.2463501070892007</v>
       </c>
       <c r="T9" t="n">
-        <v>18.04865961564463</v>
+        <v>15.66192074982151</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[12.369152388825274, 23.728166842463995]</t>
+          <t>[10.531940277943733, 20.79190122169929]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>7.92631353885298e-08</v>
+        <v>1.875058051048484e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>7.92631353885298e-08</v>
+        <v>1.875058051048484e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>13.67895895895922</v>
+        <v>17.84528528528564</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.131531531531554</v>
+        <v>5.267887887887992</v>
       </c>
       <c r="Z9" t="n">
-        <v>26.2263863863869</v>
+        <v>30.42268268268328</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.42000000000053</v>
+        <v>24.32000000000036</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4616133987591883</v>
+        <v>0.7598435546755605</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4616133987591883</v>
+        <v>0.7598435546755605</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>4.423504006009339</v>
+        <v>2.515459190501703</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-5.457085050289382, 14.304093062308059]</t>
+          <t>[-6.142888628157877, 11.173807009161283]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.3720136997139218</v>
+        <v>0.5613726544336739</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3720136997139218</v>
+        <v>0.5613726544336739</v>
       </c>
       <c r="P10" t="n">
-        <v>2.597553084950119</v>
+        <v>1.025184389459733</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.5157369321208467, 5.7108431020210855]</t>
+          <t>[-2.11326352673908, 4.163632305658546]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.09979894609472906</v>
+        <v>0.5139454326158006</v>
       </c>
       <c r="S10" t="n">
-        <v>0.09979894609472906</v>
+        <v>0.5139454326158006</v>
       </c>
       <c r="T10" t="n">
-        <v>15.52270689751601</v>
+        <v>14.1661754386351</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[10.499221327231943, 20.546192467800083]</t>
+          <t>[9.340264246550621, 18.99208663071957]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.452767184328962e-07</v>
+        <v>4.213406612496584e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>1.452767184328962e-07</v>
+        <v>4.213406612496584e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>14.91103103103135</v>
+        <v>20.35187187187217</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.315535535535584</v>
+        <v>8.204044044044158</v>
       </c>
       <c r="Z10" t="n">
-        <v>27.50652652652711</v>
+        <v>32.49969969970018</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.42000000000053</v>
+        <v>24.32000000000036</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1664124265237144</v>
+        <v>0.7127835887910903</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1664124265237144</v>
+        <v>0.7127835887910903</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>7.654619580959239</v>
+        <v>2.859631026898689</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-2.785587009739632, 18.09482617165811]</t>
+          <t>[-6.456739250421951, 12.17600130421933]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.1467168381603532</v>
+        <v>0.5395451120613952</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1467168381603532</v>
+        <v>0.5395451120613952</v>
       </c>
       <c r="P11" t="n">
-        <v>2.408868841491273</v>
+        <v>2.371131992799504</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.7232895999255771, 5.541027282908123]</t>
+          <t>[-0.767315923399309, 5.509579908998316]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1283868701333355</v>
+        <v>0.1350865244297508</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1283868701333355</v>
+        <v>0.1350865244297508</v>
       </c>
       <c r="T11" t="n">
-        <v>15.84753374790169</v>
+        <v>12.66323491981698</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[10.13826598233409, 21.55680151346928]</t>
+          <t>[7.725961855921042, 17.600507983712916]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.259881928117323e-06</v>
+        <v>5.285898810214462e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>1.259881928117323e-06</v>
+        <v>5.285898810214462e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>15.67439439439472</v>
+        <v>15.14218218218241</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.002562562562627</v>
+        <v>2.994354354354398</v>
       </c>
       <c r="Z11" t="n">
-        <v>28.34622622622682</v>
+        <v>27.29001001001042</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.42000000000053</v>
+        <v>24.32000000000036</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2616288702264452</v>
+        <v>0.9171674963803411</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2616288702264452</v>
+        <v>0.9171674963803411</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>4.35828038325184</v>
+        <v>1.073299089347797</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-2.634180146410616, 11.350740912914295]</t>
+          <t>[-5.793065366035194, 7.939663544730788]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.2158294230496476</v>
+        <v>0.7543461944637582</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2158294230496476</v>
+        <v>0.7543461944637582</v>
       </c>
       <c r="P12" t="n">
-        <v>1.729605565039425</v>
+        <v>1.754763464167272</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-1.4088423511593868, 4.8680534812382374]</t>
+          <t>[-1.377394977249578, 4.886921905584122]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.2729053486089588</v>
+        <v>0.2651381843710152</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2729053486089588</v>
+        <v>0.2651381843710152</v>
       </c>
       <c r="T12" t="n">
-        <v>11.22855275428912</v>
+        <v>12.37384290634153</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[7.377174449679167, 15.07993105889907]</t>
+          <t>[8.678652868038313, 16.069032944644754]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>4.833733961984166e-07</v>
+        <v>2.440640134437899e-08</v>
       </c>
       <c r="W12" t="n">
-        <v>4.833733961984166e-07</v>
+        <v>2.440640134437899e-08</v>
       </c>
       <c r="X12" t="n">
-        <v>18.42250250250289</v>
+        <v>17.52792792792819</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.725225225225348</v>
+        <v>5.404444444444529</v>
       </c>
       <c r="Z12" t="n">
-        <v>31.11977977978043</v>
+        <v>29.65141141141185</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.42000000000053</v>
+        <v>24.32000000000036</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3167783292642508</v>
+        <v>0.5927960663844726</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3167783292642508</v>
+        <v>0.5927960663844726</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>4.379850226494358</v>
+        <v>3.089615601787088</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-3.167398774940743, 11.927099227929459]</t>
+          <t>[-5.068274646061205, 11.247505849635381]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.2486256809986143</v>
+        <v>0.4495654387705987</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2486256809986143</v>
+        <v>0.4495654387705987</v>
       </c>
       <c r="P13" t="n">
-        <v>1.364816027685656</v>
+        <v>2.157289850212811</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-1.7736318885131563, 4.503263943884468]</t>
+          <t>[-0.9622896416401172, 5.276869342065739]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.3857507926656105</v>
+        <v>0.1705185015541737</v>
       </c>
       <c r="S13" t="n">
-        <v>0.3857507926656105</v>
+        <v>0.1705185015541737</v>
       </c>
       <c r="T13" t="n">
-        <v>13.42177144566335</v>
+        <v>10.68921372749509</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[9.276848877073766, 17.56669401425294]</t>
+          <t>[6.394646256632816, 14.983781198357372]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>5.229839783460477e-08</v>
+        <v>8.805767878650173e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>5.229839783460477e-08</v>
+        <v>8.805767878650173e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>19.89833833833876</v>
+        <v>15.96988988989013</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.201061061061214</v>
+        <v>3.895095095095153</v>
       </c>
       <c r="Z13" t="n">
-        <v>32.5956156156163</v>
+        <v>28.0446846846851</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.42000000000053</v>
+        <v>24.32000000000036</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1296475119735041</v>
+        <v>0.4021563475787338</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1296475119735041</v>
+        <v>0.4021563475787338</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>7.150122232744618</v>
+        <v>3.66790043972779</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-1.7788519658222803, 16.079096431311516]</t>
+          <t>[-3.7289795097088465, 11.064780389164426]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.1137693927526373</v>
+        <v>0.3232629766519211</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1137693927526373</v>
+        <v>0.3232629766519211</v>
       </c>
       <c r="P14" t="n">
-        <v>1.100658086843271</v>
+        <v>1.188710733790733</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-1.9748950815359265, 4.176211255222469]</t>
+          <t>[-1.9497371824080796, 4.327158649989545]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.4747645213171983</v>
+        <v>0.4495294845627864</v>
       </c>
       <c r="S14" t="n">
-        <v>0.4747645213171983</v>
+        <v>0.4495294845627864</v>
       </c>
       <c r="T14" t="n">
-        <v>14.31547176964385</v>
+        <v>11.10639268496179</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[9.36103327809596, 19.26991026119174]</t>
+          <t>[7.260674168317919, 14.952111201605664]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>5.780739515959255e-07</v>
+        <v>5.837979442091523e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>5.780739515959255e-07</v>
+        <v>5.837979442091523e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>20.96704704704749</v>
+        <v>19.71891891891921</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.524224224224398</v>
+        <v>7.571091091091208</v>
       </c>
       <c r="Z14" t="n">
-        <v>33.40986986987058</v>
+        <v>31.86674674674722</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>25.42000000000053</v>
+        <v>24.32000000000036</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.310532420983451</v>
+        <v>0.01939542259931271</v>
       </c>
       <c r="I15" t="n">
-        <v>0.310532420983451</v>
+        <v>0.01939542259931271</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>4.58976754552206</v>
+        <v>9.162391083448648</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-3.103100364437429, 12.282635455481548]</t>
+          <t>[2.039202783332417, 16.28557938356488]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.2357786366615515</v>
+        <v>0.01286447415408731</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2357786366615515</v>
+        <v>0.01286447415408731</v>
       </c>
       <c r="P15" t="n">
-        <v>1.452868674633118</v>
+        <v>1.566079220708426</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-1.6792897667837323, 4.585027116049968]</t>
+          <t>[0.4465527095192705, 2.6856057318975814]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.3551598621109067</v>
+        <v>0.007164936334548511</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3551598621109067</v>
+        <v>0.007164936334548511</v>
       </c>
       <c r="T15" t="n">
-        <v>12.67604255935796</v>
+        <v>12.05521947268288</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[8.353709487379913, 16.998375631336003]</t>
+          <t>[7.581315375979987, 16.52912356938578]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>4.294002107219086e-07</v>
+        <v>2.192650618848546e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>4.294002107219086e-07</v>
+        <v>2.192650618848546e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>19.54210210210251</v>
+        <v>18.25825825825853</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.870270270270415</v>
+        <v>13.92496496496517</v>
       </c>
       <c r="Z15" t="n">
-        <v>32.21393393393461</v>
+        <v>22.59155155155189</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_3_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_3_sawtooth_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.1800000000005</v>
+        <v>25.8500000000006</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6236307111900747</v>
+        <v>0.2176388666862388</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6236307111900747</v>
+        <v>0.2176388666862388</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>3.536826012802427</v>
+        <v>6.353375029055023</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-6.035819834482176, 13.10947186008703]</t>
+          <t>[-3.582880914066937, 16.289630972176983]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.4606510147127172</v>
+        <v>0.2043835938039016</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4606510147127172</v>
+        <v>0.2043835938039016</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.666737307551696</v>
+        <v>-1.169842309444848</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-5.805185223750509, 0.47171060864711567]</t>
+          <t>[-4.037842810019314, 1.698158191129619]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.09389603997900875</v>
+        <v>0.4156690237938157</v>
       </c>
       <c r="S2" t="n">
-        <v>0.09389603997900875</v>
+        <v>0.4156690237938157</v>
       </c>
       <c r="T2" t="n">
-        <v>12.62425206280053</v>
+        <v>14.51138784659076</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[7.581233157310514, 17.66727096829054]</t>
+          <t>[9.20661577034819, 19.81615992283334]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>7.999352174214991e-06</v>
+        <v>1.658299299656107e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>7.999352174214991e-06</v>
+        <v>1.658299299656107e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>10.68700700700722</v>
+        <v>4.812912912913024</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.890390390390426</v>
+        <v>-6.986486486486653</v>
       </c>
       <c r="Z2" t="n">
-        <v>23.26440440440486</v>
+        <v>16.6123123123127</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.1800000000005</v>
+        <v>25.8500000000006</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4550530020617787</v>
+        <v>0.3503184825580665</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4550530020617787</v>
+        <v>0.3503184825580665</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>4.082413603826061</v>
+        <v>4.805409753320387</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-4.4602142479561815, 12.625041455608304]</t>
+          <t>[-4.35352526960927, 13.964344776250044]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.3409351045504181</v>
+        <v>0.2962715296344984</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3409351045504181</v>
+        <v>0.2962715296344984</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.490632013656773</v>
+        <v>-1.232737057264464</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-5.622790455073624, 0.6415264277600787]</t>
+          <t>[-4.371184973463277, 1.9057108589343494]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.1162469533482031</v>
+        <v>0.4330293835799406</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1162469533482031</v>
+        <v>0.4330293835799406</v>
       </c>
       <c r="T3" t="n">
-        <v>10.61097210360921</v>
+        <v>16.08200949200382</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[6.093544122899601, 15.128400084318827]</t>
+          <t>[11.214584261566998, 20.949434722440643]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.240615799431467e-05</v>
+        <v>3.319902064369273e-08</v>
       </c>
       <c r="W3" t="n">
-        <v>2.240615799431467e-05</v>
+        <v>3.319902064369273e-08</v>
       </c>
       <c r="X3" t="n">
-        <v>9.981261261261457</v>
+        <v>5.07167167167179</v>
       </c>
       <c r="Y3" t="n">
-        <v>-2.570930930930986</v>
+        <v>-7.840390390390576</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.5334534534539</v>
+        <v>17.98373373373416</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.1800000000005</v>
+        <v>25.8500000000006</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2219720947756371</v>
+        <v>0.1743859117117256</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2219720947756371</v>
+        <v>0.1743859117117256</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>5.311032761899888</v>
+        <v>6.069621162723983</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-2.4423849988912743, 13.06445052269105]</t>
+          <t>[-2.4649448496946107, 14.604187175142577]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1745131737459444</v>
+        <v>0.1589420248518669</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1745131737459444</v>
+        <v>0.1589420248518669</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.74847398938531</v>
+        <v>-1.396263401595464</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.7925797838547, 1.2956318050840796]</t>
+          <t>[-4.289421801297776, 1.496894998106848]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.2534335077141101</v>
+        <v>0.3362347926715152</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2534335077141101</v>
+        <v>0.3362347926715152</v>
       </c>
       <c r="T4" t="n">
-        <v>14.42189596725099</v>
+        <v>16.05165788079382</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[10.057712494392115, 18.786079440109866]</t>
+          <t>[11.324967017259482, 20.77834874432815]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.306285578652535e-08</v>
+        <v>1.761523171772694e-08</v>
       </c>
       <c r="W4" t="n">
-        <v>3.306285578652535e-08</v>
+        <v>1.761523171772694e-08</v>
       </c>
       <c r="X4" t="n">
-        <v>7.007047047047184</v>
+        <v>5.744444444444579</v>
       </c>
       <c r="Y4" t="n">
-        <v>-5.19227227227238</v>
+        <v>-6.1584584584586</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.20636636636675</v>
+        <v>17.64734734734776</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.1800000000005</v>
+        <v>25.8500000000006</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6308737645698584</v>
+        <v>0.8301662505131119</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6308737645698584</v>
+        <v>0.8301662505131119</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>3.063423554404779</v>
+        <v>2.193674857661332</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-5.147819971164046, 11.274667079973604]</t>
+          <t>[-6.905768146586794, 11.293117861909458]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.4563149008163125</v>
+        <v>0.6296379186294456</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4563149008163125</v>
+        <v>0.6296379186294456</v>
       </c>
       <c r="P5" t="n">
         <v>-3.044105794469389</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-6.138527387194471, 0.0503157982556921]</t>
+          <t>[-6.169974761104279, 0.08176317216550011]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.05368142950139143</v>
+        <v>0.05603480578045339</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05368142950139143</v>
+        <v>0.05603480578045339</v>
       </c>
       <c r="T5" t="n">
-        <v>10.97579262488651</v>
+        <v>12.27256152034688</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.566727151971358, 15.384858097801652]</t>
+          <t>[7.343316036947925, 17.201807003745834]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>8.78445177354692e-06</v>
+        <v>8.762370633075278e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>8.78445177354692e-06</v>
+        <v>8.762370633075278e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>12.19931931931956</v>
+        <v>12.52392392392422</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.2016416416416433</v>
+        <v>-0.3363863863863941</v>
       </c>
       <c r="Z5" t="n">
-        <v>24.60028028028077</v>
+        <v>25.38423423423483</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.1800000000005</v>
+        <v>25.8500000000006</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09465078282533401</v>
+        <v>0.4249025772466699</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09465078282533401</v>
+        <v>0.4249025772466699</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>9.887224196821636</v>
+        <v>4.790382496018488</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.9578969437203355, 21.732345337363608]</t>
+          <t>[-5.330066142262938, 14.910831134299913]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.09965511262188187</v>
+        <v>0.3455061351638227</v>
       </c>
       <c r="O6" t="n">
-        <v>0.09965511262188187</v>
+        <v>0.3455061351638227</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.553526761476389</v>
+        <v>2.459184639746966</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-5.666816778547354, 0.5597632555945768]</t>
+          <t>[-0.6792632764518469, 5.597632555945778]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.1055023576923992</v>
+        <v>0.1215277289414654</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1055023576923992</v>
+        <v>0.1215277289414654</v>
       </c>
       <c r="T6" t="n">
-        <v>15.56947677681293</v>
+        <v>14.83318697520106</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[9.365469108791762, 21.773484444834104]</t>
+          <t>[9.585722125657576, 20.080651824744535]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>7.669217862771305e-06</v>
+        <v>8.8873232440001e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>7.669217862771305e-06</v>
+        <v>8.8873232440001e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>10.23331331331352</v>
+        <v>15.7325325325329</v>
       </c>
       <c r="Y6" t="n">
-        <v>-2.243263263263305</v>
+        <v>2.820470470470534</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.70988988989034</v>
+        <v>28.64459459459526</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.1800000000005</v>
+        <v>25.8500000000006</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2403782294450264</v>
+        <v>0.1609536200412309</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2403782294450264</v>
+        <v>0.1609536200412309</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>6.596920177418399</v>
+        <v>6.164183357116189</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-3.2788807669549804, 16.47272112179178]</t>
+          <t>[-2.5322289406560197, 14.8605956548884]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1852375100102228</v>
+        <v>0.1603002035907362</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1852375100102228</v>
+        <v>0.1603002035907362</v>
       </c>
       <c r="P7" t="n">
-        <v>2.798816277972889</v>
+        <v>2.597553084950119</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.1823947686768852, 5.7800273246226626]</t>
+          <t>[-0.4968685077749617, 5.6919746776752005]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.0650893667522221</v>
+        <v>0.09781028809863246</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0650893667522221</v>
+        <v>0.09781028809863246</v>
       </c>
       <c r="T7" t="n">
-        <v>13.24637390246868</v>
+        <v>11.49557032687375</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[7.83231813410714, 18.66042967083021]</t>
+          <t>[6.963701455615443, 16.027439198132065]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.169326593708497e-05</v>
+        <v>6.393961993644837e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>1.169326593708497e-05</v>
+        <v>6.393961993644837e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>13.96368368368396</v>
+        <v>15.16326326326362</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.016416416416458</v>
+        <v>2.43233233233239</v>
       </c>
       <c r="Z7" t="n">
-        <v>25.91095095095146</v>
+        <v>27.89419419419484</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.1800000000005</v>
+        <v>25.8500000000006</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2464275404997598</v>
+        <v>0.2693499367474625</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2464275404997598</v>
+        <v>0.2693499367474625</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>5.650830639623713</v>
+        <v>5.286901041750489</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-3.1588817919674987, 14.460543071214925]</t>
+          <t>[-2.9125900686042003, 13.486392152105179]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.2029840317219684</v>
+        <v>0.2006757531292793</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2029840317219684</v>
+        <v>0.2006757531292793</v>
       </c>
       <c r="P8" t="n">
-        <v>2.698184681461504</v>
+        <v>-2.918316298830158</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.3522105877898465, 5.7485799507128545]</t>
+          <t>[-6.000158941991317, 0.16352634433100022]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.08157261435804597</v>
+        <v>0.06288580888355377</v>
       </c>
       <c r="S8" t="n">
-        <v>0.08157261435804597</v>
+        <v>0.06288580888355377</v>
       </c>
       <c r="T8" t="n">
-        <v>12.92610951270433</v>
+        <v>14.5964881209384</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[8.221476318957695, 17.630742706450963]</t>
+          <t>[10.19031595899365, 19.00266028288315]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.527936318579393e-06</v>
+        <v>3.125962111383274e-08</v>
       </c>
       <c r="W8" t="n">
-        <v>1.527936318579393e-06</v>
+        <v>3.125962111383274e-08</v>
       </c>
       <c r="X8" t="n">
-        <v>14.36696696696725</v>
+        <v>12.00640640640669</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.142442442442483</v>
+        <v>-0.6727727727727899</v>
       </c>
       <c r="Z8" t="n">
-        <v>26.59149149149201</v>
+        <v>24.68558558558616</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.1800000000005</v>
+        <v>25.8500000000006</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8864652765304512</v>
+        <v>0.4055324121803129</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8864652765304512</v>
+        <v>0.4055324121803129</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>1.727849151956206</v>
+        <v>4.947919252318649</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-8.261735230392816, 11.71743353430523]</t>
+          <t>[-4.837473556897375, 14.733312061534672]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.7291872549435507</v>
+        <v>0.3139236601766779</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7291872549435507</v>
+        <v>0.3139236601766779</v>
       </c>
       <c r="P9" t="n">
-        <v>1.83023716155081</v>
+        <v>2.572395185822273</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.3082107546480017, 4.9686850777496225]</t>
+          <t>[-0.5471843060306547, 5.6919746776752005]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.2463501070892007</v>
+        <v>0.1037019355118391</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2463501070892007</v>
+        <v>0.1037019355118391</v>
       </c>
       <c r="T9" t="n">
-        <v>15.66192074982151</v>
+        <v>14.62741029753893</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[10.531940277943733, 20.79190122169929]</t>
+          <t>[9.389687281709111, 19.86513331336874]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.875058051048484e-07</v>
+        <v>1.121964656514152e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>1.875058051048484e-07</v>
+        <v>1.121964656514152e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>17.84528528528564</v>
+        <v>15.26676676676712</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.267887887887992</v>
+        <v>2.43233233233239</v>
       </c>
       <c r="Z9" t="n">
-        <v>30.42268268268328</v>
+        <v>28.10120120120186</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.32000000000036</v>
+        <v>24.02000000000032</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7598435546755605</v>
+        <v>0.6475759866543207</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7598435546755605</v>
+        <v>0.6475759866543207</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>2.515459190501703</v>
+        <v>3.833898661284613</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-6.142888628157877, 11.173807009161283]</t>
+          <t>[-7.212189596227064, 14.879986918796291]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.5613726544336739</v>
+        <v>0.488112732191003</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5613726544336739</v>
+        <v>0.488112732191003</v>
       </c>
       <c r="P10" t="n">
-        <v>1.025184389459733</v>
+        <v>2.182447749340658</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.11326352673908, 4.163632305658546]</t>
+          <t>[-0.9497106920761924, 5.314606190757508]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.5139454326158006</v>
+        <v>0.1673602841540529</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5139454326158006</v>
+        <v>0.1673602841540529</v>
       </c>
       <c r="T10" t="n">
-        <v>14.1661754386351</v>
+        <v>14.35250028731854</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[9.340264246550621, 18.99208663071957]</t>
+          <t>[8.52331314127713, 20.181687433359954]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>4.213406612496584e-07</v>
+        <v>1.054053068605398e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>4.213406612496584e-07</v>
+        <v>1.054053068605398e-05</v>
       </c>
       <c r="X10" t="n">
-        <v>20.35187187187217</v>
+        <v>15.67671671671692</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.204044044044158</v>
+        <v>3.702782782782831</v>
       </c>
       <c r="Z10" t="n">
-        <v>32.49969969970018</v>
+        <v>27.65065065065101</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.32000000000036</v>
+        <v>24.02000000000032</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7127835887910903</v>
+        <v>0.5741821765207367</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7127835887910903</v>
+        <v>0.5741821765207367</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>2.859631026898689</v>
+        <v>3.181742872677058</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-6.456739250421951, 12.17600130421933]</t>
+          <t>[-4.889400571869776, 11.252886317223894]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.5395451120613952</v>
+        <v>0.431371922036778</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5395451120613952</v>
+        <v>0.431371922036778</v>
       </c>
       <c r="P11" t="n">
-        <v>2.371131992799504</v>
+        <v>2.006342455445734</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.767315923399309, 5.509579908998316]</t>
+          <t>[-1.1258159859711174, 5.138500896862585]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1350865244297508</v>
+        <v>0.2035861298571215</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1350865244297508</v>
+        <v>0.2035861298571215</v>
       </c>
       <c r="T11" t="n">
-        <v>12.66323491981698</v>
+        <v>14.39488550984931</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[7.725961855921042, 17.600507983712916]</t>
+          <t>[10.122787472372995, 18.666983547325632]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>5.285898810214462e-06</v>
+        <v>2.113589370189572e-08</v>
       </c>
       <c r="W11" t="n">
-        <v>5.285898810214462e-06</v>
+        <v>2.113589370189572e-08</v>
       </c>
       <c r="X11" t="n">
-        <v>15.14218218218241</v>
+        <v>16.34994994995017</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.994354354354398</v>
+        <v>4.376016016016072</v>
       </c>
       <c r="Z11" t="n">
-        <v>27.29001001001042</v>
+        <v>28.32388388388426</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.32000000000036</v>
+        <v>24.02000000000032</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9171674963803411</v>
+        <v>0.1914727002713019</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9171674963803411</v>
+        <v>0.1914727002713019</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1.073299089347797</v>
+        <v>5.915864467953588</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-5.793065366035194, 7.939663544730788]</t>
+          <t>[-1.7803631353258424, 13.612092071233018]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.7543461944637582</v>
+        <v>0.1285832598760419</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7543461944637582</v>
+        <v>0.1285832598760419</v>
       </c>
       <c r="P12" t="n">
-        <v>1.754763464167272</v>
+        <v>1.66671081721981</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-1.377394977249578, 4.886921905584122]</t>
+          <t>[-1.3333686537758478, 4.666790288215468]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.2651381843710152</v>
+        <v>0.2691005022807345</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2651381843710152</v>
+        <v>0.2691005022807345</v>
       </c>
       <c r="T12" t="n">
-        <v>12.37384290634153</v>
+        <v>15.20819731039457</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[8.678652868038313, 16.069032944644754]</t>
+          <t>[10.662622370099175, 19.75377225068997]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.440640134437899e-08</v>
+        <v>2.490263506516044e-08</v>
       </c>
       <c r="W12" t="n">
-        <v>2.440640134437899e-08</v>
+        <v>2.490263506516044e-08</v>
       </c>
       <c r="X12" t="n">
-        <v>17.52792792792819</v>
+        <v>17.64832832832856</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.404444444444529</v>
+        <v>6.179319319319401</v>
       </c>
       <c r="Z12" t="n">
-        <v>29.65141141141185</v>
+        <v>29.11733733733772</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.32000000000036</v>
+        <v>24.02000000000032</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5927960663844726</v>
+        <v>0.07472455111598864</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5927960663844726</v>
+        <v>0.07472455111598864</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>3.089615601787088</v>
+        <v>6.94634326355947</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-5.068274646061205, 11.247505849635381]</t>
+          <t>[0.016010251929891695, 13.876676275189048]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.4495654387705987</v>
+        <v>0.04949511904891546</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4495654387705987</v>
+        <v>0.04949511904891546</v>
       </c>
       <c r="P13" t="n">
-        <v>2.157289850212811</v>
+        <v>1.591237119836272</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.9622896416401172, 5.276869342065739]</t>
+          <t>[0.1823947686768852, 3.000079470995659]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.1705185015541737</v>
+        <v>0.02772959417146614</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1705185015541737</v>
+        <v>0.02772959417146614</v>
       </c>
       <c r="T13" t="n">
-        <v>10.68921372749509</v>
+        <v>12.79191266559131</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[6.394646256632816, 14.983781198357372]</t>
+          <t>[8.576809078994081, 17.007016252188535]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>8.805767878650173e-06</v>
+        <v>2.126200286944879e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>8.805767878650173e-06</v>
+        <v>2.126200286944879e-07</v>
       </c>
       <c r="X13" t="n">
-        <v>15.96988988989013</v>
+        <v>17.93685685685709</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.895095095095153</v>
+        <v>12.55099099099115</v>
       </c>
       <c r="Z13" t="n">
-        <v>28.0446846846851</v>
+        <v>23.32272272272303</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.32000000000036</v>
+        <v>24.02000000000032</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4021563475787338</v>
+        <v>0.08336078883349352</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4021563475787338</v>
+        <v>0.08336078883349352</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>3.66790043972779</v>
+        <v>5.44507672167749</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-3.7289795097088465, 11.064780389164426]</t>
+          <t>[-0.49457593272321, 11.38472937607819]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.3232629766519211</v>
+        <v>0.07141805598015294</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3232629766519211</v>
+        <v>0.07141805598015294</v>
       </c>
       <c r="P14" t="n">
-        <v>1.188710733790733</v>
+        <v>1.402552876377426</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-1.9497371824080796, 4.327158649989545]</t>
+          <t>[-0.15723686954903826, 2.96234262230389]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.4495294845627864</v>
+        <v>0.07680862156464907</v>
       </c>
       <c r="S14" t="n">
-        <v>0.4495294845627864</v>
+        <v>0.07680862156464907</v>
       </c>
       <c r="T14" t="n">
-        <v>11.10639268496179</v>
+        <v>10.81356937255425</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[7.260674168317919, 14.952111201605664]</t>
+          <t>[7.43128245953962, 14.19585628556888]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>5.837979442091523e-07</v>
+        <v>6.939953411944089e-08</v>
       </c>
       <c r="W14" t="n">
-        <v>5.837979442091523e-07</v>
+        <v>6.939953411944089e-08</v>
       </c>
       <c r="X14" t="n">
-        <v>19.71891891891921</v>
+        <v>18.65817817817842</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.571091091091208</v>
+        <v>12.69525525525542</v>
       </c>
       <c r="Z14" t="n">
-        <v>31.86674674674722</v>
+        <v>24.62110110110142</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.32000000000036</v>
+        <v>24.02000000000032</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01939542259931271</v>
+        <v>0.04606242776539082</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01939542259931271</v>
+        <v>0.04606242776539082</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>9.162391083448648</v>
+        <v>7.786397236223377</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[2.039202783332417, 16.28557938356488]</t>
+          <t>[-0.47952507849163606, 16.05231955093839]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.01286447415408731</v>
+        <v>0.06422165260245793</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01286447415408731</v>
+        <v>0.06422165260245793</v>
       </c>
       <c r="P15" t="n">
-        <v>1.566079220708426</v>
+        <v>2.257921446724196</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0.4465527095192705, 2.6856057318975814]</t>
+          <t>[0.35850006257180933, 4.1573428308765825]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.007164936334548511</v>
+        <v>0.02088204230249824</v>
       </c>
       <c r="S15" t="n">
-        <v>0.007164936334548511</v>
+        <v>0.02088204230249824</v>
       </c>
       <c r="T15" t="n">
-        <v>12.05521947268288</v>
+        <v>13.10038080984405</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[7.581315375979987, 16.52912356938578]</t>
+          <t>[8.783141293425889, 17.41762032626222]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>2.192650618848546e-06</v>
+        <v>2.131269829508398e-07</v>
       </c>
       <c r="W15" t="n">
-        <v>2.192650618848546e-06</v>
+        <v>2.131269829508398e-07</v>
       </c>
       <c r="X15" t="n">
-        <v>18.25825825825853</v>
+        <v>15.38818818818839</v>
       </c>
       <c r="Y15" t="n">
-        <v>13.92496496496517</v>
+        <v>8.126886886886995</v>
       </c>
       <c r="Z15" t="n">
-        <v>22.59155155155189</v>
+        <v>22.64948948948978</v>
       </c>
     </row>
   </sheetData>
